--- a/PythonResources/Data/Consumption/Sympheny/futu_1560_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1560_hea.xlsx
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>67.19679309946656</v>
+        <v>67.19679309946655</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>34.81508096673586</v>
+        <v>34.81508096673585</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>181.8702152489551</v>
+        <v>181.870215248955</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>69.76731917956522</v>
+        <v>69.76731917956521</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>39.61499843793137</v>
+        <v>39.61499843793136</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>33.29931755477938</v>
+        <v>33.29931755477937</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>20.42667040234551</v>
+        <v>20.4266704023455</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>59.69798443323872</v>
+        <v>59.69798443323871</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>0.5839909358989164</v>
+        <v>0.5839909358989163</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>6.215421280825946</v>
+        <v>6.215421280825945</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>21.30518014783676</v>
+        <v>21.30518014783675</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>27.6967957371059</v>
+        <v>27.69679573710589</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>66.99603943798354</v>
+        <v>66.99603943798353</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>26.11901849336869</v>
+        <v>26.11901849336868</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>41.2986915550408</v>
+        <v>41.29869155504079</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>56.46511780576542</v>
+        <v>56.46511780576541</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>57.75433730483668</v>
+        <v>57.75433730483667</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>104.4437775450143</v>
+        <v>104.4437775450142</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>89.32072580801152</v>
+        <v>89.3207258080115</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>76.58737532025339</v>
+        <v>76.58737532025337</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>44.32787381064446</v>
+        <v>44.32787381064445</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>12.76523661676449</v>
+        <v>12.76523661676448</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>69.58649434871117</v>
+        <v>69.58649434871116</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>36.41231812744019</v>
+        <v>36.41231812744018</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>224.670309735058</v>
+        <v>224.6703097350579</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>93.11980568217854</v>
+        <v>93.11980568217852</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>0.8063791014559184</v>
+        <v>0.8063791014559183</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>38.14729867631535</v>
+        <v>38.14729867631534</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>49.17351036387115</v>
+        <v>49.17351036387114</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>54.78376925696528</v>
+        <v>54.78376925696527</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>7.081973727939811</v>
+        <v>7.08197372793981</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>78.66378362916902</v>
+        <v>78.663783629169</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>71.55886243890203</v>
+        <v>71.55886243890201</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>83.06365913259179</v>
+        <v>83.06365913259178</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>8.447215854439822</v>
+        <v>8.44721585443982</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>55.85611618742714</v>
+        <v>55.85611618742713</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>34.80980568803995</v>
+        <v>34.80980568803994</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>7.784933921272914</v>
+        <v>7.784933921272913</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>6.232097022925776</v>
+        <v>6.232097022925775</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>3.134453372690821</v>
+        <v>3.13445337269082</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>44.08579713271019</v>
+        <v>44.08579713271018</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>7.158787647172949</v>
+        <v>7.158787647172948</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>49.56857012398664</v>
+        <v>49.56857012398663</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>2.959841647856391</v>
+        <v>2.95984164785639</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>23.42411306446215</v>
+        <v>23.42411306446214</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>16.0379902125996</v>
+        <v>16.03799021259959</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>10.35862516858912</v>
+        <v>10.35862516858911</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>61.99067916868642</v>
+        <v>61.99067916868641</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>1.551339305339579</v>
+        <v>1.551339305339578</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>78.66378362916902</v>
+        <v>78.663783629169</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>45.59921597635738</v>
+        <v>45.59921597635737</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>72.89614558831374</v>
+        <v>72.89614558831373</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>69.19172765963434</v>
+        <v>69.19172765963432</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>9.270569630455006</v>
+        <v>9.270569630455004</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>13.38783673129665</v>
+        <v>13.38783673129664</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>47.84384706146462</v>
+        <v>47.84384706146461</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>54.2741187207332</v>
+        <v>54.27411872073319</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>64.69308721618269</v>
+        <v>64.69308721618268</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>237.0434759163013</v>
+        <v>237.0434759163012</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>88.28882268088492</v>
+        <v>88.28882268088491</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>4.215944119558917</v>
+        <v>4.215944119558916</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>3.965221845984136</v>
+        <v>3.965221845984135</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>4.170693951189605</v>
+        <v>4.170693951189604</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>11.51886410354552</v>
+        <v>11.51886410354551</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>41.05427030879724</v>
+        <v>41.05427030879723</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>270.8090694935909</v>
+        <v>270.8090694935908</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>107.8601066426896</v>
+        <v>107.8601066426895</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>71.28132416528973</v>
+        <v>71.28132416528972</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>31.66544651424238</v>
+        <v>31.66544651424237</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>50.55475416908207</v>
+        <v>50.55475416908206</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>42.37895140354652</v>
+        <v>42.37895140354651</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>8.533818346364249</v>
+        <v>8.533818346364248</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>5.412758320140252</v>
+        <v>5.412758320140251</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>0.6044414329767051</v>
+        <v>0.6044414329767049</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>7.601647293694109</v>
+        <v>7.601647293694108</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>66.53181491274397</v>
+        <v>66.53181491274395</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11775,7 +11775,7 @@
         <v>1429</v>
       </c>
       <c r="B1429">
-        <v>59.31113066220574</v>
+        <v>59.31113066220573</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>21.40986512284659</v>
+        <v>21.40986512284658</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>23.55250748649969</v>
+        <v>23.55250748649968</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>0.8342003351560399</v>
+        <v>0.8342003351560398</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>4.6244265332451</v>
+        <v>4.624426533245099</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>54.68412510382042</v>
+        <v>54.68412510382041</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>140.3411698575265</v>
+        <v>140.3411698575264</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>77.75438419620286</v>
+        <v>77.75438419620285</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>1.958951298040938</v>
+        <v>1.958951298040937</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>183.4891396665204</v>
+        <v>183.4891396665203</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>59.2750829244504</v>
+        <v>59.27508292445039</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -14231,7 +14231,7 @@
         <v>1736</v>
       </c>
       <c r="B1736">
-        <v>4.648370437103732</v>
+        <v>4.648370437103731</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>50.87566695641624</v>
+        <v>50.87566695641623</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>1.159248354845725</v>
+        <v>1.159248354845724</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>5.085485891267129</v>
+        <v>5.085485891267128</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>4.357262974401418</v>
+        <v>4.357262974401417</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>7.987446008987903</v>
+        <v>7.987446008987902</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>16.908147433489</v>
+        <v>16.90814743348899</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>5.513897135582283</v>
+        <v>5.513897135582282</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>22.4594990478122</v>
+        <v>22.45949904781219</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>37.36274750581893</v>
+        <v>37.36274750581892</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>0.3326825202468128</v>
+        <v>0.3326825202468127</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>48.58795442862578</v>
+        <v>48.58795442862577</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -53191,7 +53191,7 @@
         <v>6606</v>
       </c>
       <c r="B6606">
-        <v>0.8670858364042294</v>
+        <v>0.8670858364042293</v>
       </c>
     </row>
     <row r="6607" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>42.29484001545071</v>
+        <v>42.2948400154507</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>8.252704606080288</v>
+        <v>8.252704606080286</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>86.32700514808587</v>
+        <v>86.32700514808586</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>54.19264497198535</v>
+        <v>54.19264497198534</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>37.20478221598047</v>
+        <v>37.20478221598046</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>0.4933176872474827</v>
+        <v>0.4933176872474826</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>7.872503547624923</v>
+        <v>7.872503547624922</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>63.11196896260473</v>
+        <v>63.11196896260472</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>6.350292572817896</v>
+        <v>6.350292572817895</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>22.92085147687289</v>
+        <v>22.92085147687288</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>86.99989625285232</v>
+        <v>86.99989625285231</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>65.20977145734264</v>
+        <v>65.20977145734263</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>90.27906810443412</v>
+        <v>90.2790681044341</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>78.03250861189248</v>
+        <v>78.03250861189247</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>26.8559749271865</v>
+        <v>26.85597492718649</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>23.1147765831551</v>
+        <v>23.11477658315509</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>65.46474326097801</v>
+        <v>65.464743260978</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>0.847453007524306</v>
+        <v>0.8474530075243059</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>0.8444607522195736</v>
+        <v>0.8444607522195735</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>3.693398457625738</v>
+        <v>3.693398457625737</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -64327,7 +64327,7 @@
         <v>7998</v>
       </c>
       <c r="B7998">
-        <v>7.238415048377237</v>
+        <v>7.238415048377236</v>
       </c>
     </row>
     <row r="7999" spans="1:2">
@@ -64343,7 +64343,7 @@
         <v>8000</v>
       </c>
       <c r="B8000">
-        <v>15.69946385584188</v>
+        <v>15.69946385584187</v>
       </c>
     </row>
     <row r="8001" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>5.302182617253327</v>
+        <v>5.302182617253326</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>30.41725696058371</v>
+        <v>30.4172569605837</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>6.753939314366168</v>
+        <v>6.753939314366167</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>1.56890598339694</v>
+        <v>1.568905983396939</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>59.31816436713361</v>
+        <v>59.3181643671336</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>7.61164101611246</v>
+        <v>7.611641016112459</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>89.09887103174488</v>
+        <v>89.09887103174486</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>24.76995388820278</v>
+        <v>24.76995388820277</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>17.65477521158264</v>
+        <v>17.65477521158263</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>9.116971099092597</v>
+        <v>9.116971099092591</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>54.43442857888096</v>
+        <v>54.43442857888095</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>44.03245820367383</v>
+        <v>44.03245820367382</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65767,7 +65767,7 @@
         <v>8178</v>
       </c>
       <c r="B8178">
-        <v>53.57074822794597</v>
+        <v>53.57074822794596</v>
       </c>
     </row>
     <row r="8179" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>7.836983337739169</v>
+        <v>7.836983337739168</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>4.372825046554335</v>
+        <v>4.372825046554334</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>37.1256530355419</v>
+        <v>37.12565303554189</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>26.42870665992213</v>
+        <v>26.42870665992212</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66319,7 +66319,7 @@
         <v>8247</v>
       </c>
       <c r="B8247">
-        <v>41.52552853896468</v>
+        <v>41.52552853896467</v>
       </c>
     </row>
     <row r="8248" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>30.94331947498082</v>
+        <v>30.94331947498081</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66535,7 +66535,7 @@
         <v>8274</v>
       </c>
       <c r="B8274">
-        <v>18.30454301139871</v>
+        <v>18.3045430113987</v>
       </c>
     </row>
     <row r="8275" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>49.97593886772591</v>
+        <v>49.9759388677259</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>62.1128897918082</v>
+        <v>62.11288979180819</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>199.2446387049543</v>
+        <v>199.2446387049542</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>44.25900211655905</v>
+        <v>44.25900211655904</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>0.6770908127504659</v>
+        <v>0.6770908127504658</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>7.351774926131445</v>
+        <v>7.351774926131444</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>54.82714377068716</v>
+        <v>54.82714377068715</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>56.35287159795812</v>
+        <v>56.35287159795811</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>19.44174656271633</v>
+        <v>19.44174656271632</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>242.8374903506361</v>
+        <v>242.837490350636</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68591,7 +68591,7 @@
         <v>8531</v>
       </c>
       <c r="B8531">
-        <v>4.479590825938663</v>
+        <v>4.479590825938662</v>
       </c>
     </row>
     <row r="8532" spans="1:2">
@@ -68599,7 +68599,7 @@
         <v>8532</v>
       </c>
       <c r="B8532">
-        <v>4.303162060664533</v>
+        <v>4.303162060664532</v>
       </c>
     </row>
     <row r="8533" spans="1:2">
@@ -68647,7 +68647,7 @@
         <v>8538</v>
       </c>
       <c r="B8538">
-        <v>2.135385924735841</v>
+        <v>2.13538592473584</v>
       </c>
     </row>
     <row r="8539" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>54.55663920200274</v>
+        <v>54.55663920200273</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68775,7 +68775,7 @@
         <v>8554</v>
       </c>
       <c r="B8554">
-        <v>40.08127446044157</v>
+        <v>40.08127446044156</v>
       </c>
     </row>
     <row r="8555" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>239.6570834390832</v>
+        <v>239.6570834390831</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>77.12574681827428</v>
+        <v>77.12574681827427</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>85.70569454612382</v>
+        <v>85.70569454612381</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>8.278406936170887</v>
+        <v>8.278406936170885</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>7.175990917142371</v>
+        <v>7.17599091714237</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>40.17535026385186</v>
+        <v>40.17535026385185</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>48.69726992604646</v>
+        <v>48.69726992604645</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>53.23459574660141</v>
+        <v>53.2345957466014</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>84.27374945122449</v>
+        <v>84.27374945122448</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>60.67860012859958</v>
+        <v>60.67860012859957</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>42.01202646314251</v>
+        <v>42.0120264631425</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>35.37543279265635</v>
+        <v>35.37543279265634</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>98.2582202030279</v>
+        <v>98.25822020302788</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>75.78260224808933</v>
+        <v>75.78260224808932</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>27.67282252614341</v>
+        <v>27.6728225261434</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
